--- a/Packages/SGTE/SGTE/data/P.xlsx
+++ b/Packages/SGTE/SGTE/data/P.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\Montanuni\Masterarbeit\4_Daten\SGTE Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\Montanuni\Masterarbeit\5 Programmcodes\packages\sgte\sgte\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C5CD7C-056F-4452-9279-3B11DEA29B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531DFD82-2882-482E-8DDC-7F6C2E339022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8520" yWindow="1210" windowWidth="9010" windowHeight="9430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9740" yWindow="70" windowWidth="9010" windowHeight="9430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -463,7 +463,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD21"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -656,8 +656,8 @@
         <v>6.7272364000000001E-2</v>
       </c>
       <c r="H7" s="2">
-        <f>-6.6519293-6</f>
-        <v>-12.651929299999999</v>
+        <f>-0.000006651929</f>
+        <v>-6.651929E-6</v>
       </c>
       <c r="I7">
         <v>12495943</v>
@@ -681,15 +681,6 @@
       </c>
       <c r="F8">
         <v>-26.326000000000001</v>
-      </c>
-      <c r="G8">
-        <v>6.7272364000000001E-2</v>
-      </c>
-      <c r="H8">
-        <v>-6.651929E-6</v>
-      </c>
-      <c r="I8">
-        <v>-141375</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
